--- a/data/pca/factorExposure/factorExposure_2017-07-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02368827671072141</v>
+        <v>-0.00827155953994251</v>
       </c>
       <c r="C2">
-        <v>0.0009767877402943597</v>
+        <v>0.04568608742700786</v>
       </c>
       <c r="D2">
-        <v>0.02410167551918206</v>
+        <v>-0.02982582060611593</v>
       </c>
       <c r="E2">
-        <v>0.01301119629911061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03301793020648026</v>
+      </c>
+      <c r="F2">
+        <v>0.009707777049072485</v>
+      </c>
+      <c r="G2">
+        <v>0.07411776879458151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0164306490786897</v>
+        <v>-0.05078070660875476</v>
       </c>
       <c r="C3">
-        <v>-0.0531883730071995</v>
+        <v>0.07645908016683398</v>
       </c>
       <c r="D3">
-        <v>0.0296893699278925</v>
+        <v>-0.01583697067912782</v>
       </c>
       <c r="E3">
-        <v>0.01448204467422329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1042449186056577</v>
+      </c>
+      <c r="F3">
+        <v>0.02996545984321182</v>
+      </c>
+      <c r="G3">
+        <v>0.1554355249073653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02351318549584358</v>
+        <v>-0.05893524243970329</v>
       </c>
       <c r="C4">
-        <v>-0.01822205506084106</v>
+        <v>0.06426701130640491</v>
       </c>
       <c r="D4">
-        <v>0.06340532172689424</v>
+        <v>-0.02368181653764836</v>
       </c>
       <c r="E4">
-        <v>-0.01416642886695398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02400472190273117</v>
+      </c>
+      <c r="F4">
+        <v>0.007449049259715047</v>
+      </c>
+      <c r="G4">
+        <v>0.07605668440175052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01562982531450691</v>
+        <v>-0.03919856919529426</v>
       </c>
       <c r="C6">
-        <v>-0.01151280970207603</v>
+        <v>0.05264231272466244</v>
       </c>
       <c r="D6">
-        <v>0.08475053761158217</v>
+        <v>-0.01629548926888109</v>
       </c>
       <c r="E6">
-        <v>-0.009041369567042367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02531219956261228</v>
+      </c>
+      <c r="F6">
+        <v>0.01215826947798977</v>
+      </c>
+      <c r="G6">
+        <v>0.05501543248773711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01130921813136389</v>
+        <v>-0.0204514419081442</v>
       </c>
       <c r="C7">
-        <v>-0.009267963122496682</v>
+        <v>0.04039573483093171</v>
       </c>
       <c r="D7">
-        <v>0.03910747985946857</v>
+        <v>-0.01295873454012312</v>
       </c>
       <c r="E7">
-        <v>-0.05943349107324537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006248093244425473</v>
+      </c>
+      <c r="F7">
+        <v>-0.0049441384828003</v>
+      </c>
+      <c r="G7">
+        <v>0.1146986399283214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002813793050177453</v>
+        <v>-0.001911894953806595</v>
       </c>
       <c r="C8">
-        <v>-0.0001050240251101988</v>
+        <v>0.02168050177583885</v>
       </c>
       <c r="D8">
-        <v>0.003941333310471556</v>
+        <v>-0.003636270234311711</v>
       </c>
       <c r="E8">
-        <v>-0.007381759563013107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02224226435100575</v>
+      </c>
+      <c r="F8">
+        <v>0.0163961236027398</v>
+      </c>
+      <c r="G8">
+        <v>0.04545089956796267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01651329493659402</v>
+        <v>-0.03467892736341625</v>
       </c>
       <c r="C9">
-        <v>-0.02050394136260617</v>
+        <v>0.04513290461021252</v>
       </c>
       <c r="D9">
-        <v>0.04878661314396062</v>
+        <v>-0.01615672776985304</v>
       </c>
       <c r="E9">
-        <v>-0.003605302845036825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01633860042729465</v>
+      </c>
+      <c r="F9">
+        <v>0.01264328948051889</v>
+      </c>
+      <c r="G9">
+        <v>0.07895976135128953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02025508978207416</v>
+        <v>-0.09365684866819893</v>
       </c>
       <c r="C10">
-        <v>-0.1628556130349955</v>
+        <v>-0.1860271885988754</v>
       </c>
       <c r="D10">
-        <v>-0.110151542607889</v>
+        <v>0.01652361835817213</v>
       </c>
       <c r="E10">
-        <v>0.008711235185881799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01446601674426611</v>
+      </c>
+      <c r="F10">
+        <v>-0.02052257770494752</v>
+      </c>
+      <c r="G10">
+        <v>0.0537815158801256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0008894550827074657</v>
+        <v>-0.0349081533093858</v>
       </c>
       <c r="C11">
-        <v>-0.007185354102921816</v>
+        <v>0.05342970426026342</v>
       </c>
       <c r="D11">
-        <v>0.04049641955034494</v>
+        <v>-0.002339947353498705</v>
       </c>
       <c r="E11">
-        <v>0.005183909240400899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008945975669454145</v>
+      </c>
+      <c r="F11">
+        <v>0.02103416021750877</v>
+      </c>
+      <c r="G11">
+        <v>0.06136946410139366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006530602022144566</v>
+        <v>-0.0365757549071845</v>
       </c>
       <c r="C12">
-        <v>-0.01344169894998702</v>
+        <v>0.04851672677521138</v>
       </c>
       <c r="D12">
-        <v>0.04639920776272443</v>
+        <v>-0.006115581217827614</v>
       </c>
       <c r="E12">
-        <v>-0.005973758681203753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>8.121386961683501e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.001171088166486055</v>
+      </c>
+      <c r="G12">
+        <v>0.05786909841130704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02289741052735119</v>
+        <v>-0.01656522275452756</v>
       </c>
       <c r="C13">
-        <v>-0.01502276214739823</v>
+        <v>0.03658242343515826</v>
       </c>
       <c r="D13">
-        <v>0.007920049439667433</v>
+        <v>-0.02586041268764216</v>
       </c>
       <c r="E13">
-        <v>0.01110180564765182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02812737320364237</v>
+      </c>
+      <c r="F13">
+        <v>0.00690208348191711</v>
+      </c>
+      <c r="G13">
+        <v>0.09131942863792593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008518590258689234</v>
+        <v>-0.008903134565312014</v>
       </c>
       <c r="C14">
-        <v>-0.01552520474723233</v>
+        <v>0.02529050218125844</v>
       </c>
       <c r="D14">
-        <v>0.01008493015123709</v>
+        <v>-0.009025245407099182</v>
       </c>
       <c r="E14">
-        <v>-0.007894007097738359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002295615049431103</v>
+      </c>
+      <c r="F14">
+        <v>-0.004762776642606212</v>
+      </c>
+      <c r="G14">
+        <v>0.07791867803613114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00172078930632682</v>
+        <v>-0.03399857895363273</v>
       </c>
       <c r="C16">
-        <v>-0.01266485864770593</v>
+        <v>0.04777283417513076</v>
       </c>
       <c r="D16">
-        <v>0.04655154250780275</v>
+        <v>-0.001886032985423382</v>
       </c>
       <c r="E16">
-        <v>-0.005199364925291272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007503908069203019</v>
+      </c>
+      <c r="F16">
+        <v>0.002482302394823721</v>
+      </c>
+      <c r="G16">
+        <v>0.06533611746016492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01498260066314964</v>
+        <v>-0.0238019041938635</v>
       </c>
       <c r="C19">
-        <v>-0.02527970776403726</v>
+        <v>0.04970960794125812</v>
       </c>
       <c r="D19">
-        <v>0.01642951534145894</v>
+        <v>-0.01764210499611823</v>
       </c>
       <c r="E19">
-        <v>-0.004468342656417596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06355879772099414</v>
+      </c>
+      <c r="F19">
+        <v>0.01993907260027351</v>
+      </c>
+      <c r="G19">
+        <v>0.1061559390859349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01083571825892138</v>
+        <v>-0.01520390328654576</v>
       </c>
       <c r="C20">
-        <v>-0.007957395967588531</v>
+        <v>0.03456558198998014</v>
       </c>
       <c r="D20">
-        <v>0.01216821294276195</v>
+        <v>-0.01340737935820989</v>
       </c>
       <c r="E20">
-        <v>0.01001709461109267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02702842917831629</v>
+      </c>
+      <c r="F20">
+        <v>-0.004973058585432823</v>
+      </c>
+      <c r="G20">
+        <v>0.07770133943602033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01487995790184942</v>
+        <v>-0.01436230018886548</v>
       </c>
       <c r="C21">
-        <v>-0.0204177911319516</v>
+        <v>0.03800127657673446</v>
       </c>
       <c r="D21">
-        <v>0.02191629321355739</v>
+        <v>-0.01760124263186473</v>
       </c>
       <c r="E21">
-        <v>-0.01095409210235968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03877015071285306</v>
+      </c>
+      <c r="F21">
+        <v>0.0001019949908856274</v>
+      </c>
+      <c r="G21">
+        <v>0.1113736670923087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004656067252769517</v>
+        <v>-0.02792228060005416</v>
       </c>
       <c r="C24">
-        <v>-0.001295128892687312</v>
+        <v>0.05063457529768874</v>
       </c>
       <c r="D24">
-        <v>0.04307146820637766</v>
+        <v>-0.007235748293551918</v>
       </c>
       <c r="E24">
-        <v>-0.0008107637153815607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004941408121097022</v>
+      </c>
+      <c r="F24">
+        <v>0.01394151446855989</v>
+      </c>
+      <c r="G24">
+        <v>0.0662213281244103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01234194105866016</v>
+        <v>-0.04231151372311021</v>
       </c>
       <c r="C25">
-        <v>-0.01777250383667058</v>
+        <v>0.0576939563720229</v>
       </c>
       <c r="D25">
-        <v>0.04446822392422736</v>
+        <v>-0.01133753944685889</v>
       </c>
       <c r="E25">
-        <v>-0.0006966994537807847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0009960719853247771</v>
+      </c>
+      <c r="F25">
+        <v>0.00965102679703562</v>
+      </c>
+      <c r="G25">
+        <v>0.07194395669734295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02331928784133606</v>
+        <v>-0.01535076838048294</v>
       </c>
       <c r="C26">
-        <v>-0.01093010751037685</v>
+        <v>0.008348207703961726</v>
       </c>
       <c r="D26">
-        <v>-0.004723041918821884</v>
+        <v>-0.02342227843353214</v>
       </c>
       <c r="E26">
-        <v>-0.008208806083375431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002764660630671936</v>
+      </c>
+      <c r="F26">
+        <v>-0.007230838724854129</v>
+      </c>
+      <c r="G26">
+        <v>0.06434933665884496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04279608315482225</v>
+        <v>-0.1181542623237571</v>
       </c>
       <c r="C28">
-        <v>-0.2324579663089783</v>
+        <v>-0.2365117551444856</v>
       </c>
       <c r="D28">
-        <v>-0.1631036415463327</v>
+        <v>0.007069090944088718</v>
       </c>
       <c r="E28">
-        <v>-0.01083877048726811</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.003106371595302061</v>
+      </c>
+      <c r="F28">
+        <v>-0.01847207327723275</v>
+      </c>
+      <c r="G28">
+        <v>0.07010352243696094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00873203386527604</v>
+        <v>-0.01123747130193154</v>
       </c>
       <c r="C29">
-        <v>-0.01916590447645456</v>
+        <v>0.01990482819572061</v>
       </c>
       <c r="D29">
-        <v>0.009789084805633175</v>
+        <v>-0.007813336103753506</v>
       </c>
       <c r="E29">
-        <v>-0.003621254078569423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004329059208866742</v>
+      </c>
+      <c r="F29">
+        <v>-0.01487272396195109</v>
+      </c>
+      <c r="G29">
+        <v>0.06971505034889565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02414343924616577</v>
+        <v>-0.04477155607542148</v>
       </c>
       <c r="C30">
-        <v>-0.004308741307156778</v>
+        <v>0.06502671348557003</v>
       </c>
       <c r="D30">
-        <v>0.06313862845483674</v>
+        <v>-0.02846793337467511</v>
       </c>
       <c r="E30">
-        <v>0.04869010966013518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05117193147206464</v>
+      </c>
+      <c r="F30">
+        <v>0.04788462963281139</v>
+      </c>
+      <c r="G30">
+        <v>0.07897157618624021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0101453221141893</v>
+        <v>-0.05327829722647113</v>
       </c>
       <c r="C31">
-        <v>-0.04361499761396394</v>
+        <v>0.03507650582060765</v>
       </c>
       <c r="D31">
-        <v>0.04126791113698893</v>
+        <v>-0.003174905109714514</v>
       </c>
       <c r="E31">
-        <v>-0.01070805841165842</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005604272107870038</v>
+      </c>
+      <c r="F31">
+        <v>-0.03986365067243802</v>
+      </c>
+      <c r="G31">
+        <v>0.06670317606704176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005653330720337383</v>
+        <v>3.483206298676466e-05</v>
       </c>
       <c r="C32">
-        <v>-0.02010555308150488</v>
+        <v>0.02680827801762047</v>
       </c>
       <c r="D32">
-        <v>-0.01028984819809987</v>
+        <v>0.004009621944118305</v>
       </c>
       <c r="E32">
-        <v>-0.04998096167250557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01516281868772568</v>
+      </c>
+      <c r="F32">
+        <v>0.04170409079525184</v>
+      </c>
+      <c r="G32">
+        <v>0.09000298970896271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01414562516155405</v>
+        <v>-0.02785457131293612</v>
       </c>
       <c r="C33">
-        <v>-0.02611024677568949</v>
+        <v>0.04815428430398944</v>
       </c>
       <c r="D33">
-        <v>0.02448933159853261</v>
+        <v>-0.01508918361852755</v>
       </c>
       <c r="E33">
-        <v>0.02895700327888535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03310358395513106</v>
+      </c>
+      <c r="F33">
+        <v>0.01667788079006379</v>
+      </c>
+      <c r="G33">
+        <v>0.104050309075506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003713329930165093</v>
+        <v>-0.04002611877083873</v>
       </c>
       <c r="C34">
-        <v>-0.01919199196747992</v>
+        <v>0.06208191910100553</v>
       </c>
       <c r="D34">
-        <v>0.05007235411166636</v>
+        <v>0.004408623540923447</v>
       </c>
       <c r="E34">
-        <v>-0.009333652691046036</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0009016047313746177</v>
+      </c>
+      <c r="F34">
+        <v>0.02111327388921035</v>
+      </c>
+      <c r="G34">
+        <v>0.07300788651076613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01326425425878471</v>
+        <v>-0.01527725334124147</v>
       </c>
       <c r="C36">
-        <v>-0.02133056160483043</v>
+        <v>0.00892811408894034</v>
       </c>
       <c r="D36">
-        <v>0.0001174138593497293</v>
+        <v>-0.01165479177169676</v>
       </c>
       <c r="E36">
-        <v>-0.003242831465173726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00159114450608495</v>
+      </c>
+      <c r="F36">
+        <v>-0.00799831160165268</v>
+      </c>
+      <c r="G36">
+        <v>0.05894324053481966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.002966078073442646</v>
+        <v>-0.0326790948170796</v>
       </c>
       <c r="C38">
-        <v>-0.03693839528516506</v>
+        <v>0.02816018793849306</v>
       </c>
       <c r="D38">
-        <v>0.03255002372992139</v>
+        <v>0.00777028724436317</v>
       </c>
       <c r="E38">
-        <v>-0.005226055340148581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002219676508624357</v>
+      </c>
+      <c r="F38">
+        <v>-0.01511346897509144</v>
+      </c>
+      <c r="G38">
+        <v>0.06564613965764063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005008932585593157</v>
+        <v>-0.03602558466157942</v>
       </c>
       <c r="C39">
-        <v>0.0177196099414352</v>
+        <v>0.08062118842819906</v>
       </c>
       <c r="D39">
-        <v>0.08882264956227916</v>
+        <v>-0.01188248637437769</v>
       </c>
       <c r="E39">
-        <v>0.01276020031367803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02098796996122792</v>
+      </c>
+      <c r="F39">
+        <v>0.02648400974967594</v>
+      </c>
+      <c r="G39">
+        <v>0.06284605688604478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01285769666626562</v>
+        <v>-0.01815491129651707</v>
       </c>
       <c r="C40">
-        <v>-0.02203288508766215</v>
+        <v>0.03333360269967475</v>
       </c>
       <c r="D40">
-        <v>0.02810953104832856</v>
+        <v>-0.0139217766707483</v>
       </c>
       <c r="E40">
-        <v>-0.001831692334568962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02330991904087265</v>
+      </c>
+      <c r="F40">
+        <v>0.01200768370003025</v>
+      </c>
+      <c r="G40">
+        <v>0.0722503618851152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006382090516060672</v>
+        <v>-0.01744430040262888</v>
       </c>
       <c r="C41">
-        <v>-0.02135577510439979</v>
+        <v>0.001386526693779045</v>
       </c>
       <c r="D41">
-        <v>-0.01248744932060652</v>
+        <v>-0.003750738893229789</v>
       </c>
       <c r="E41">
-        <v>-0.003316271080677712</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0003930994560921064</v>
+      </c>
+      <c r="F41">
+        <v>-0.01262939567026609</v>
+      </c>
+      <c r="G41">
+        <v>0.04781513097563817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09568303823184793</v>
+        <v>-0.01161288530089167</v>
       </c>
       <c r="C42">
-        <v>0.00559295328916839</v>
+        <v>0.03926931076817929</v>
       </c>
       <c r="D42">
-        <v>0.2666309293531641</v>
+        <v>-0.09392475289536829</v>
       </c>
       <c r="E42">
-        <v>0.4202058152252743</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02929946936663791</v>
+      </c>
+      <c r="F42">
+        <v>-0.03905193216097115</v>
+      </c>
+      <c r="G42">
+        <v>-0.1660739684049274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007688186911088797</v>
+        <v>-0.03307527415540817</v>
       </c>
       <c r="C43">
-        <v>-0.02574409603344367</v>
+        <v>0.01404382190384625</v>
       </c>
       <c r="D43">
-        <v>-0.01292533957404022</v>
+        <v>-0.005247922156063279</v>
       </c>
       <c r="E43">
-        <v>0.002801948521520216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01224868152276319</v>
+      </c>
+      <c r="F43">
+        <v>-0.005026898124126935</v>
+      </c>
+      <c r="G43">
+        <v>0.07033114482224317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003367442639881937</v>
+        <v>-0.0156489284999134</v>
       </c>
       <c r="C44">
-        <v>-0.007477962652141403</v>
+        <v>0.04962096977538377</v>
       </c>
       <c r="D44">
-        <v>0.02638968051037353</v>
+        <v>-0.00620001069480758</v>
       </c>
       <c r="E44">
-        <v>-0.006506772837293161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01828984249268889</v>
+      </c>
+      <c r="F44">
+        <v>-0.004906651012173587</v>
+      </c>
+      <c r="G44">
+        <v>0.08528009967134796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01143459524641899</v>
+        <v>-0.00828287870495718</v>
       </c>
       <c r="C46">
-        <v>-0.01627108797941308</v>
+        <v>0.01623909508734137</v>
       </c>
       <c r="D46">
-        <v>0.009301991027427174</v>
+        <v>-0.0116535530749054</v>
       </c>
       <c r="E46">
-        <v>0.001462001480495953</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.002809811806569309</v>
+      </c>
+      <c r="F46">
+        <v>-0.01757633064224995</v>
+      </c>
+      <c r="G46">
+        <v>0.07019443147258564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004992427243221898</v>
+        <v>-0.0791829791831281</v>
       </c>
       <c r="C47">
-        <v>-0.0554932549325091</v>
+        <v>0.06313091138219397</v>
       </c>
       <c r="D47">
-        <v>0.06252972331558362</v>
+        <v>0.005472507560099218</v>
       </c>
       <c r="E47">
-        <v>-0.005794667195842756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01001297511709694</v>
+      </c>
+      <c r="F47">
+        <v>-0.05561712855218118</v>
+      </c>
+      <c r="G47">
+        <v>0.06432215525548962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004224647205041844</v>
+        <v>-0.02106663302007348</v>
       </c>
       <c r="C48">
-        <v>-0.0267007334663927</v>
+        <v>0.01058430606877551</v>
       </c>
       <c r="D48">
-        <v>0.01202845835466133</v>
+        <v>-0.0009570149787594525</v>
       </c>
       <c r="E48">
-        <v>-0.002422034673634411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002373158176366983</v>
+      </c>
+      <c r="F48">
+        <v>-0.02130884103519555</v>
+      </c>
+      <c r="G48">
+        <v>0.06613055076835046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006736169331179175</v>
+        <v>-0.07749193780745332</v>
       </c>
       <c r="C50">
-        <v>-0.05602655092370736</v>
+        <v>0.06660899906843644</v>
       </c>
       <c r="D50">
-        <v>0.06386342074553363</v>
+        <v>0.003286417765128545</v>
       </c>
       <c r="E50">
-        <v>-0.03259551302856534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0111712378607598</v>
+      </c>
+      <c r="F50">
+        <v>-0.05956680260877039</v>
+      </c>
+      <c r="G50">
+        <v>0.08177891030042536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007430907192492966</v>
+        <v>-0.0146773755932993</v>
       </c>
       <c r="C51">
-        <v>-0.0159991373461736</v>
+        <v>0.0324934566678434</v>
       </c>
       <c r="D51">
-        <v>-0.002202124968242424</v>
+        <v>-0.009770073087105887</v>
       </c>
       <c r="E51">
-        <v>-0.00445009867309819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01595808069830091</v>
+      </c>
+      <c r="F51">
+        <v>0.02360714346816407</v>
+      </c>
+      <c r="G51">
+        <v>0.1026017901791542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.008141956655639951</v>
+        <v>-0.08469609136007487</v>
       </c>
       <c r="C53">
-        <v>-0.06780610420825639</v>
+        <v>0.07948381910722534</v>
       </c>
       <c r="D53">
-        <v>0.1201431432969936</v>
+        <v>0.004760295748709468</v>
       </c>
       <c r="E53">
-        <v>-0.01232040683932254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03065087524696745</v>
+      </c>
+      <c r="F53">
+        <v>-0.06099308763144744</v>
+      </c>
+      <c r="G53">
+        <v>0.05364092122107634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001875714001598677</v>
+        <v>-0.03142834602907452</v>
       </c>
       <c r="C54">
-        <v>-0.03660462494642868</v>
+        <v>0.01500107086380717</v>
       </c>
       <c r="D54">
-        <v>-5.73850857830904e-05</v>
+        <v>0.002321083510315156</v>
       </c>
       <c r="E54">
-        <v>-0.003391859239889682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005512240739260318</v>
+      </c>
+      <c r="F54">
+        <v>-0.007078380317657782</v>
+      </c>
+      <c r="G54">
+        <v>0.07405636282063076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004254610197593376</v>
+        <v>-0.07410381749295487</v>
       </c>
       <c r="C55">
-        <v>-0.04608672301640573</v>
+        <v>0.06670539755598349</v>
       </c>
       <c r="D55">
-        <v>0.1024794572641586</v>
+        <v>0.005743264645971136</v>
       </c>
       <c r="E55">
-        <v>0.0006256150123391743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.026200105593754</v>
+      </c>
+      <c r="F55">
+        <v>-0.05959644786384678</v>
+      </c>
+      <c r="G55">
+        <v>0.0346965457135134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007477623650670771</v>
+        <v>-0.1423435283789819</v>
       </c>
       <c r="C56">
-        <v>-0.09461123745302528</v>
+        <v>0.1051127199972356</v>
       </c>
       <c r="D56">
-        <v>0.1547808755677065</v>
+        <v>0.01310491602245216</v>
       </c>
       <c r="E56">
-        <v>-0.0008341427190707312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03525782911990921</v>
+      </c>
+      <c r="F56">
+        <v>-0.07965735850366444</v>
+      </c>
+      <c r="G56">
+        <v>0.01149500219055467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02419969681984558</v>
+        <v>-0.007768875261061585</v>
       </c>
       <c r="C57">
-        <v>-0.01578082366738523</v>
+        <v>0.009176141270510096</v>
       </c>
       <c r="D57">
-        <v>0.04099743653327538</v>
+        <v>-0.02351058477831338</v>
       </c>
       <c r="E57">
-        <v>0.002954460349079281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02431205905035405</v>
+      </c>
+      <c r="F57">
+        <v>0.009423473192412971</v>
+      </c>
+      <c r="G57">
+        <v>0.02726896665074749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01737884227396776</v>
+        <v>-0.07007317007927402</v>
       </c>
       <c r="C58">
-        <v>-0.08921512125582214</v>
+        <v>0.03993583664370588</v>
       </c>
       <c r="D58">
-        <v>0.1237644199083088</v>
+        <v>-0.02469008592657793</v>
       </c>
       <c r="E58">
-        <v>0.396465278138045</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9356291615946682</v>
+      </c>
+      <c r="F58">
+        <v>-0.2404277171542515</v>
+      </c>
+      <c r="G58">
+        <v>-0.09604785673901782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04059583418646957</v>
+        <v>-0.1554765876334779</v>
       </c>
       <c r="C59">
-        <v>-0.2515935334503569</v>
+        <v>-0.2092924254189443</v>
       </c>
       <c r="D59">
-        <v>-0.1646604806257866</v>
+        <v>0.0128991285445363</v>
       </c>
       <c r="E59">
-        <v>-0.004861146755119133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01412439953257255</v>
+      </c>
+      <c r="F59">
+        <v>0.004061710606725217</v>
+      </c>
+      <c r="G59">
+        <v>0.03960976441270837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04171438126845859</v>
+        <v>-0.2883707331558957</v>
       </c>
       <c r="C60">
-        <v>-0.162891252984793</v>
+        <v>0.09499029944319634</v>
       </c>
       <c r="D60">
-        <v>0.07652248699387391</v>
+        <v>-0.01309002337146542</v>
       </c>
       <c r="E60">
-        <v>0.00537851222495079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-4.352391169268999e-05</v>
+      </c>
+      <c r="F60">
+        <v>0.353118605283314</v>
+      </c>
+      <c r="G60">
+        <v>-0.1329745718778978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003324628785903788</v>
+        <v>-0.03720083571558433</v>
       </c>
       <c r="C61">
-        <v>-0.007854253867906814</v>
+        <v>0.06604641403349497</v>
       </c>
       <c r="D61">
-        <v>0.06238070501703407</v>
+        <v>-0.005274754227515845</v>
       </c>
       <c r="E61">
-        <v>-0.0008204293039832763</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01322196937742061</v>
+      </c>
+      <c r="F61">
+        <v>0.01494358763237619</v>
+      </c>
+      <c r="G61">
+        <v>0.0637612503038212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007753257374043884</v>
+        <v>-0.0141466966194299</v>
       </c>
       <c r="C63">
-        <v>-0.008053512387861769</v>
+        <v>0.02897915992201372</v>
       </c>
       <c r="D63">
-        <v>0.0103385337479722</v>
+        <v>-0.008083687472161805</v>
       </c>
       <c r="E63">
-        <v>-0.009191845211130671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001652468153120785</v>
+      </c>
+      <c r="F63">
+        <v>-0.01734648241396987</v>
+      </c>
+      <c r="G63">
+        <v>0.07043416758869514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009137197655421449</v>
+        <v>-0.04727016078556952</v>
       </c>
       <c r="C64">
-        <v>-0.03070426517271516</v>
+        <v>0.04615940749853894</v>
       </c>
       <c r="D64">
-        <v>0.05934808597035838</v>
+        <v>-0.006193344235953298</v>
       </c>
       <c r="E64">
-        <v>0.01517124880820144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001459534303909497</v>
+      </c>
+      <c r="F64">
+        <v>0.00351277491280201</v>
+      </c>
+      <c r="G64">
+        <v>0.06000075288017131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01796295458824686</v>
+        <v>-0.0795605919692956</v>
       </c>
       <c r="C65">
-        <v>-0.01205182147411524</v>
+        <v>0.0578410717023011</v>
       </c>
       <c r="D65">
-        <v>0.1012042221819057</v>
+        <v>-0.01601035858373396</v>
       </c>
       <c r="E65">
-        <v>-0.01339568216006669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02635294948589443</v>
+      </c>
+      <c r="F65">
+        <v>0.03039312223387631</v>
+      </c>
+      <c r="G65">
+        <v>0.02407136800862351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004912786915065718</v>
+        <v>-0.05211713824239773</v>
       </c>
       <c r="C66">
-        <v>0.01246708763019407</v>
+        <v>0.1113700590614071</v>
       </c>
       <c r="D66">
-        <v>0.1134209287546042</v>
+        <v>-0.01194675131393956</v>
       </c>
       <c r="E66">
-        <v>0.009713702992308627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02907180958080186</v>
+      </c>
+      <c r="F66">
+        <v>0.03511266320971738</v>
+      </c>
+      <c r="G66">
+        <v>0.07279483723874966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003762793719528667</v>
+        <v>-0.05483795166682746</v>
       </c>
       <c r="C67">
-        <v>-0.05856105777775489</v>
+        <v>0.03149639988179372</v>
       </c>
       <c r="D67">
-        <v>0.0367671009122936</v>
+        <v>0.005849203206203617</v>
       </c>
       <c r="E67">
-        <v>-0.00663145677208617</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003849422144078117</v>
+      </c>
+      <c r="F67">
+        <v>-0.01545698137561455</v>
+      </c>
+      <c r="G67">
+        <v>0.06143413730804635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05738148848184729</v>
+        <v>-0.1429877128444601</v>
       </c>
       <c r="C68">
-        <v>-0.2295914087887023</v>
+        <v>-0.2729849000946722</v>
       </c>
       <c r="D68">
-        <v>-0.1629737016357126</v>
+        <v>-0.004765862938493348</v>
       </c>
       <c r="E68">
-        <v>0.01567603888606874</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0107437179062498</v>
+      </c>
+      <c r="F68">
+        <v>-0.02978816595559187</v>
+      </c>
+      <c r="G68">
+        <v>0.02378447178400471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0005271304061161443</v>
+        <v>-0.0823030709266742</v>
       </c>
       <c r="C69">
-        <v>-0.04334148527124606</v>
+        <v>0.06606915984444721</v>
       </c>
       <c r="D69">
-        <v>0.06338166617334216</v>
+        <v>0.009582174230094276</v>
       </c>
       <c r="E69">
-        <v>-0.009774212887376156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02703073370285593</v>
+      </c>
+      <c r="F69">
+        <v>-0.03978427103794153</v>
+      </c>
+      <c r="G69">
+        <v>0.06749546869431364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0428828897464212</v>
+        <v>-0.1320835562261075</v>
       </c>
       <c r="C71">
-        <v>-0.2029231394080714</v>
+        <v>-0.2322269381809497</v>
       </c>
       <c r="D71">
-        <v>-0.1358657278659765</v>
+        <v>0.004155557870759354</v>
       </c>
       <c r="E71">
-        <v>0.006104093516347052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02738927473491472</v>
+      </c>
+      <c r="F71">
+        <v>-0.01444385518663979</v>
+      </c>
+      <c r="G71">
+        <v>0.04842269442058233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0005970176213924517</v>
+        <v>-0.0883523777575403</v>
       </c>
       <c r="C72">
-        <v>-0.04836199131099037</v>
+        <v>0.07031846922724576</v>
       </c>
       <c r="D72">
-        <v>0.1249277811969588</v>
+        <v>0.008218122428856839</v>
       </c>
       <c r="E72">
-        <v>-0.005297867861942454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002724978410581618</v>
+      </c>
+      <c r="F72">
+        <v>0.04362111294448742</v>
+      </c>
+      <c r="G72">
+        <v>0.05223145937186574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05559265063193734</v>
+        <v>-0.3833213772209856</v>
       </c>
       <c r="C73">
-        <v>-0.1887254565255404</v>
+        <v>0.1111120342449773</v>
       </c>
       <c r="D73">
-        <v>0.1515554498350858</v>
+        <v>-0.02297332747159827</v>
       </c>
       <c r="E73">
-        <v>0.04389975692173413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06772832870670281</v>
+      </c>
+      <c r="F73">
+        <v>0.5683840637170651</v>
+      </c>
+      <c r="G73">
+        <v>-0.2104959419735881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.00482967679986819</v>
+        <v>-0.1111351750916014</v>
       </c>
       <c r="C74">
-        <v>-0.08331179731236432</v>
+        <v>0.1099050998024984</v>
       </c>
       <c r="D74">
-        <v>0.1605696649920644</v>
+        <v>0.01018333603093197</v>
       </c>
       <c r="E74">
-        <v>0.0103267404593196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01431391008440316</v>
+      </c>
+      <c r="F74">
+        <v>-0.07429661502743547</v>
+      </c>
+      <c r="G74">
+        <v>0.05771979552504279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01495278937417443</v>
+        <v>-0.2523575612905499</v>
       </c>
       <c r="C75">
-        <v>-0.1918310380564023</v>
+        <v>0.1452795083801813</v>
       </c>
       <c r="D75">
-        <v>0.2841382670811647</v>
+        <v>0.03070753977390916</v>
       </c>
       <c r="E75">
-        <v>0.01363970757800754</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05812471248806306</v>
+      </c>
+      <c r="F75">
+        <v>-0.1806981888780121</v>
+      </c>
+      <c r="G75">
+        <v>-0.05555523753076556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.002106030755375623</v>
+        <v>-0.126287100576032</v>
       </c>
       <c r="C76">
-        <v>-0.1222358340054482</v>
+        <v>0.1114696915034393</v>
       </c>
       <c r="D76">
-        <v>0.2237311028815463</v>
+        <v>0.02051566658129009</v>
       </c>
       <c r="E76">
-        <v>-0.02983574539751686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04301957034221985</v>
+      </c>
+      <c r="F76">
+        <v>-0.1151749553821917</v>
+      </c>
+      <c r="G76">
+        <v>0.03319517891165964</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01338221687988525</v>
+        <v>-0.06653652203886908</v>
       </c>
       <c r="C77">
-        <v>-0.02102881846504711</v>
+        <v>0.05695729641674805</v>
       </c>
       <c r="D77">
-        <v>0.04124232632517217</v>
+        <v>-0.01250432653164124</v>
       </c>
       <c r="E77">
-        <v>0.01820283245003563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05132625073450926</v>
+      </c>
+      <c r="F77">
+        <v>0.01377786446979776</v>
+      </c>
+      <c r="G77">
+        <v>0.06421383253576282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005364371042130031</v>
+        <v>-0.04508825115808761</v>
       </c>
       <c r="C78">
-        <v>-0.01705224834478152</v>
+        <v>0.04888992495273768</v>
       </c>
       <c r="D78">
-        <v>0.05911579923493706</v>
+        <v>-0.005419200722827045</v>
       </c>
       <c r="E78">
-        <v>0.008000616926558545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02293815941848498</v>
+      </c>
+      <c r="F78">
+        <v>0.03702748132602299</v>
+      </c>
+      <c r="G78">
+        <v>0.06847316661434896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01641505983071455</v>
+        <v>-0.057567051463358</v>
       </c>
       <c r="C80">
-        <v>-0.09216793720191845</v>
+        <v>0.06760358203414178</v>
       </c>
       <c r="D80">
-        <v>0.2180150787404476</v>
+        <v>-0.009893307910074941</v>
       </c>
       <c r="E80">
-        <v>-0.7898648542799245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02708225453514068</v>
+      </c>
+      <c r="F80">
+        <v>0.007449436863629045</v>
+      </c>
+      <c r="G80">
+        <v>0.6710734142942334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.009177880637374101</v>
+        <v>-0.1440199909013648</v>
       </c>
       <c r="C81">
-        <v>-0.1134615374809798</v>
+        <v>0.08941170876554252</v>
       </c>
       <c r="D81">
-        <v>0.1633267393523937</v>
+        <v>0.01588501689291544</v>
       </c>
       <c r="E81">
-        <v>-0.01271412222173394</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03657158581725838</v>
+      </c>
+      <c r="F81">
+        <v>-0.1286537404621774</v>
+      </c>
+      <c r="G81">
+        <v>0.01769611072219342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1227950784804042</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.061723541700545</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007293800495450376</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08625637432728155</v>
+      </c>
+      <c r="F82">
+        <v>-0.02429441483310534</v>
+      </c>
+      <c r="G82">
+        <v>0.02812807294003796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007341089559219004</v>
+        <v>-0.03452924101087335</v>
       </c>
       <c r="C83">
-        <v>-0.02217616332457492</v>
+        <v>0.024360049932254</v>
       </c>
       <c r="D83">
-        <v>0.0200610758257127</v>
+        <v>-0.005729270009058458</v>
       </c>
       <c r="E83">
-        <v>0.000988307909600126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02902129967896982</v>
+      </c>
+      <c r="F83">
+        <v>0.03514480124303942</v>
+      </c>
+      <c r="G83">
+        <v>0.04689852696165026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02058694958361189</v>
+        <v>-0.2181456029143079</v>
       </c>
       <c r="C85">
-        <v>-0.1499653280175616</v>
+        <v>0.1405288858319123</v>
       </c>
       <c r="D85">
-        <v>0.2568680623040842</v>
+        <v>0.01799357217336518</v>
       </c>
       <c r="E85">
-        <v>0.00877192993563246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09844549911557256</v>
+      </c>
+      <c r="F85">
+        <v>-0.1418639601768575</v>
+      </c>
+      <c r="G85">
+        <v>-0.1019342297272471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01025734545237373</v>
+        <v>-0.0157212255790727</v>
       </c>
       <c r="C86">
-        <v>-0.03582692607208761</v>
+        <v>0.02398073993337001</v>
       </c>
       <c r="D86">
-        <v>0.01371075708777231</v>
+        <v>-0.0115442870077266</v>
       </c>
       <c r="E86">
-        <v>0.04178635230595418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0456611456528189</v>
+      </c>
+      <c r="F86">
+        <v>0.04195035964155504</v>
+      </c>
+      <c r="G86">
+        <v>0.1360459805895682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008672336411724263</v>
+        <v>-0.02283135213558211</v>
       </c>
       <c r="C87">
-        <v>-0.01409449373745247</v>
+        <v>0.02686509749186009</v>
       </c>
       <c r="D87">
-        <v>0.03996869769702353</v>
+        <v>-0.01177834262828718</v>
       </c>
       <c r="E87">
-        <v>0.01308807940422202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08560571561565142</v>
+      </c>
+      <c r="F87">
+        <v>0.02156360965065854</v>
+      </c>
+      <c r="G87">
+        <v>0.0919319693097756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02827073775891492</v>
+        <v>-0.09059691034655279</v>
       </c>
       <c r="C88">
-        <v>-0.03528081874770325</v>
+        <v>0.06636444828401451</v>
       </c>
       <c r="D88">
-        <v>0.03676626431257114</v>
+        <v>-0.02292384224820207</v>
       </c>
       <c r="E88">
-        <v>-0.003781370154132736</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01045611023615478</v>
+      </c>
+      <c r="F88">
+        <v>-0.02397308407149805</v>
+      </c>
+      <c r="G88">
+        <v>0.06554064858074028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07992459388645785</v>
+        <v>-0.2194944061772312</v>
       </c>
       <c r="C89">
-        <v>-0.368365608215805</v>
+        <v>-0.3752152915879812</v>
       </c>
       <c r="D89">
-        <v>-0.2446284479500715</v>
+        <v>0.002580951679457621</v>
       </c>
       <c r="E89">
-        <v>-0.0187785742038029</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02166096337338643</v>
+      </c>
+      <c r="F89">
+        <v>-0.0228286460734472</v>
+      </c>
+      <c r="G89">
+        <v>0.04099246498829733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06142668481269851</v>
+        <v>-0.1983319604346459</v>
       </c>
       <c r="C90">
-        <v>-0.2861560071042798</v>
+        <v>-0.3274227330296687</v>
       </c>
       <c r="D90">
-        <v>-0.2182899655385872</v>
+        <v>0.007127073908697497</v>
       </c>
       <c r="E90">
-        <v>0.01309543841056734</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01440299871848356</v>
+      </c>
+      <c r="F90">
+        <v>-0.05038376401148117</v>
+      </c>
+      <c r="G90">
+        <v>0.01605305611954878</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01018381713342919</v>
+        <v>-0.1946017853753523</v>
       </c>
       <c r="C91">
-        <v>-0.1631873743554776</v>
+        <v>0.1384695968696142</v>
       </c>
       <c r="D91">
-        <v>0.2285548364333179</v>
+        <v>0.02346185958415346</v>
       </c>
       <c r="E91">
-        <v>-0.01458975322113822</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0696491806887974</v>
+      </c>
+      <c r="F91">
+        <v>-0.1525612693872663</v>
+      </c>
+      <c r="G91">
+        <v>0.01055087925737155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02873322945809888</v>
+        <v>-0.1953112245241531</v>
       </c>
       <c r="C92">
-        <v>-0.3011420845373386</v>
+        <v>-0.2643161542374263</v>
       </c>
       <c r="D92">
-        <v>-0.1105838158242679</v>
+        <v>0.04148241166768269</v>
       </c>
       <c r="E92">
-        <v>0.01191776032057141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01924734801695259</v>
+      </c>
+      <c r="F92">
+        <v>-0.06448760452866291</v>
+      </c>
+      <c r="G92">
+        <v>0.1229450149219358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05918902115171974</v>
+        <v>-0.2230063236827399</v>
       </c>
       <c r="C93">
-        <v>-0.3106046722977203</v>
+        <v>-0.3262970249203332</v>
       </c>
       <c r="D93">
-        <v>-0.199596776479757</v>
+        <v>0.01336274095422985</v>
       </c>
       <c r="E93">
-        <v>0.03661525143007584</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001442847266229312</v>
+      </c>
+      <c r="F93">
+        <v>-0.03454103457543648</v>
+      </c>
+      <c r="G93">
+        <v>0.02191352706808346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03478399320792631</v>
+        <v>-0.3165899248864426</v>
       </c>
       <c r="C94">
-        <v>-0.1937599138095545</v>
+        <v>0.1701687254779586</v>
       </c>
       <c r="D94">
-        <v>0.2496196225750867</v>
+        <v>0.01767955894521302</v>
       </c>
       <c r="E94">
-        <v>0.01261304060623109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1678774545533798</v>
+      </c>
+      <c r="F94">
+        <v>-0.4773391798967924</v>
+      </c>
+      <c r="G94">
+        <v>-0.2814629646593552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004146336823430749</v>
+        <v>-0.09856759723640932</v>
       </c>
       <c r="C95">
-        <v>-0.04037148458417807</v>
+        <v>0.08547084100753459</v>
       </c>
       <c r="D95">
-        <v>0.08433401126322367</v>
+        <v>0.008750344291865299</v>
       </c>
       <c r="E95">
-        <v>0.1277456660039154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06536967220300401</v>
+      </c>
+      <c r="F95">
+        <v>0.1894666305775963</v>
+      </c>
+      <c r="G95">
+        <v>-0.05907901293469919</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01622827919911772</v>
+        <v>-0.1997647190822253</v>
       </c>
       <c r="C98">
-        <v>-0.1699274586536924</v>
+        <v>0.04516157821397877</v>
       </c>
       <c r="D98">
-        <v>0.1109814360948641</v>
+        <v>0.01226602286893297</v>
       </c>
       <c r="E98">
-        <v>0.04859469332682629</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06825577854895763</v>
+      </c>
+      <c r="F98">
+        <v>0.2418537568170062</v>
+      </c>
+      <c r="G98">
+        <v>-0.02360709722805137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008513498141957806</v>
+        <v>-0.01105622236497042</v>
       </c>
       <c r="C101">
-        <v>-0.01884926547508799</v>
+        <v>0.01986762385796776</v>
       </c>
       <c r="D101">
-        <v>0.00952049373041944</v>
+        <v>-0.007635120589517715</v>
       </c>
       <c r="E101">
-        <v>-0.004048588946228763</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.004601955580661955</v>
+      </c>
+      <c r="F101">
+        <v>-0.01589280899865127</v>
+      </c>
+      <c r="G101">
+        <v>0.06930228732872577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01970216442984797</v>
+        <v>-0.1202817554890241</v>
       </c>
       <c r="C102">
-        <v>-0.08657983569103067</v>
+        <v>0.08306748329715598</v>
       </c>
       <c r="D102">
-        <v>0.1284906349642381</v>
+        <v>-0.001045972306391442</v>
       </c>
       <c r="E102">
-        <v>0.0007804672082513729</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03217035085490497</v>
+      </c>
+      <c r="F102">
+        <v>-0.04281100497653657</v>
+      </c>
+      <c r="G102">
+        <v>-0.002032972816021812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002178294463946179</v>
+        <v>-0.003624228569223418</v>
       </c>
       <c r="C103">
-        <v>-0.01269401253853642</v>
+        <v>0.003435869073782666</v>
       </c>
       <c r="D103">
-        <v>0.02222620826913713</v>
+        <v>-0.0001565129899452434</v>
       </c>
       <c r="E103">
-        <v>-0.01419518720883893</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001926826043128715</v>
+      </c>
+      <c r="F103">
+        <v>-0.005387555604277398</v>
+      </c>
+      <c r="G103">
+        <v>0.01294296495227331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9751427590298892</v>
+        <v>-0.02259542463725306</v>
       </c>
       <c r="C104">
-        <v>0.1752276995251289</v>
+        <v>-0.03403059011991179</v>
       </c>
       <c r="D104">
-        <v>-0.01193058186415079</v>
+        <v>-0.9872935110268631</v>
       </c>
       <c r="E104">
-        <v>-0.04226385912042929</v>
+        <v>0.04990213958848892</v>
+      </c>
+      <c r="F104">
+        <v>-0.04076562547823554</v>
+      </c>
+      <c r="G104">
+        <v>-0.01896771228737571</v>
       </c>
     </row>
   </sheetData>
